--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="295">
   <si>
     <t>Nombre</t>
   </si>
@@ -25,880 +25,880 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Apple 2022 iPhone SE (128 GB) - Blanco Estelar</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro (128 GB) - Titanio Azul</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro MAX (256 GB) - Titanio Blanco</t>
+  </si>
+  <si>
+    <t>Apple Nuevo AirTag (Paquete de 4)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13, 128GB, Rojo - (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11, Totalmente Desbloqueado, 64GB, Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>2020 Apple iPhone SE, 64GB, Blanco (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14, 128GB, Medianoche (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro, 256GB, Negro Espacial (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus, 128GB, Medianoche (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64 GB, Azul (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro, 128GB, Grafito (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128 GB, Azul - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64GB, Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Mini, 64GB, Rojo (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro MAX 128 GB Negro Espacial (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple - iPhone 11 Pro, 256GB, gris espacial</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Azul</t>
+  </si>
+  <si>
+    <t>Apple iPhone XR, 64GB, Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro MAX, 128GB, Azul Alpino - (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128 GB, Negro - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro, 128GB, Azul Sierra - (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 128GB, Verde - (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 128GB, Medianoche (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro MAX, 128 GB, Grafito (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64GB, Blanco (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128 GB, Blanco - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64GB, Verde (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 256GB, Verde - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini (512 GB) - (Product) Red</t>
+  </si>
+  <si>
+    <t>Apple 2022 iPhone SE (64 GB) - Medianoche</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 256 GB, Negro - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 256GB, Azul - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro, 128GB, Azul Sierra (Reacondicionado Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro MAX (256 GB) - Titanio Negro</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus, 128GB, Midnight - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64GB, (Product) Red (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro, 128GB, Space Black - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Plus (128 GB) - Verde</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64GB, Púrpura (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 256 GB, (Producto) Rojo - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone XR, 64GB, Blanco (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128GB, Púrpura (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128 GB, Verde - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>iPhone 13, 128GB, Midnight - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 128 GB Medianoche</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 128GB, Azul (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128 GB, (Producto) Rojo - Totalmente Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro, 128 GB, Grafito (Reacondicionado Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 128GB, Rosa (Reacondicionado)</t>
+  </si>
+  <si>
     <t>Apple iPhone 15 Pro (128 GB) - Titanio Natural</t>
   </si>
   <si>
-    <t>Apple iPhone 15 (256 GB) - Verde</t>
-  </si>
-  <si>
-    <t>Apple 2022 iPhone SE (128 GB) - (Product) Red</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini (512 GB) - Blanco Estelar</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13, 128GB, Rojo - (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone SE 2020 (Negro, 64GB) (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 256GB, Negro Espacial (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64GB, Negro (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64 GB, Azul (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini, 64GB, Azul (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11, Totalmente Desbloqueado, 64GB, Negro (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro 128GB Azul (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Plus, 128GB, Morado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14, 128GB, Medianoche (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro MAX, 128GB, Azul Alpino - (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro, 256GB, Grafito - (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128 GB, Negro - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128 GB, Azul - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 Pro 64 GB Color Verde (Midnight Green) (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 (128 GB) - Azul</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro MAX 128 GB Negro Espacial (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 (128 GB) - Negro (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (256 GB) - Titanio Negro</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Plus (128 GB) - Verde</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro Max, 256GB, Grafito (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>iPhone 13, 128GB, Midnight - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128 GB, Blanco - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 128GB, Medianoche (Reacondicionado)</t>
+    <t>Apple 2022 iPhone SE (64 GB) - Blanco Estelar</t>
+  </si>
+  <si>
+    <t>Fasgear Cable USB C a USB C de 240W de 3.3 pies retráctil de Carga rápida de 5A Tipo C para Cargador USB C de 100W Compatible con iPhone 15, Controlador PS5, ThinkPad X1 (Negro/Plateado)</t>
+  </si>
+  <si>
+    <t>Soundex Pilas Auditivas 675 1.4V (675)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11, 64GB, Amarillo (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 256GB, Medianoche (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro, 256GB, Azul Pacifico (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 Pro Max, 64GB - Verde Medianoche (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro, 256GB, Space Black - Unlocked (Renewed Premium)</t>
   </si>
   <si>
     <t>Apple iPhone 14, 128GB, Blue - Unlocked (Renewed Premium)</t>
   </si>
   <si>
-    <t>Apple iPhone 13 Mini, 128GB, Verde - (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64GB, Púrpura (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 256 GB, (Producto) Rojo - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Plus, 128GB, Midnight - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64GB, Blanco (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro Max, 256 GB, Azul pacífico (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro, 128GB, Verde Alpino (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128 GB, (Producto) Rojo - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 256GB, Azul - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 256 GB, Negro - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 128GB, Silver - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 128GB, Space Black - Unlocked (Renewed Premium)</t>
+    <t>Apple iPhone 14 Pro, 256GB, Deep Purple - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 Pro (restaurado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro, 256GB, Plata (Renewed)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max, 256GB, Space Black - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11, 256GB, Blanco (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 128GB, Blanco Estrella (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>iPhone 13, 128GB, Product Red - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Mini, 64GB, Morado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Phone Celular Desbloqueado,Phone 11 Desbloqueado U Landvo Ip12 Pro+ 6.26In Pantalla Reconocimiento Facial Tarjeta Dual Dual Standby Smart Phone 1+8Gb(Negro)</t>
+  </si>
+  <si>
+    <t>Apple iPhone X, 256GB, Silver - Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 256GB, Blanco Estrella (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 (128 GB) - Blanco</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 256GB, Morado - Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple Cable de USB-C a Lightning (1 m)</t>
+  </si>
+  <si>
+    <t>Google Pixel 7 Pro - Teléfono Android 5G - Smartphone Desbloqueado con teleobjetivo, Lente Gran Angular y batería de 24 Horas - 128 GB - Nieve</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 64 GB, Negro - T-Mobile (renovado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 Pro Max, 64GB, Plata (Reacondicionado Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone SE 3rd Gen, 64GB, Media Noche (Reacondicionado Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone XR, 128GB, Yellow - Fully Unlocked (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max, 256GB, Deep Purple - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 256GB, Azul (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 256GB, Rosa (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro (1 TB) - Azul Sierra</t>
+  </si>
+  <si>
+    <t>Honor Smartphone X7A RAM 6+128GB Plata Titanio Dual SIM Desbloqueado</t>
+  </si>
+  <si>
+    <t>Cable iPhone USB A a Lightning 3 Pack, iPhone Charger Cable de nailon,3 ft Apple MFi Certificado,para Apple iPhone 14 13 12 11 X Xs Pro, Pro Max, Plus, iPad, gris oscuro</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro, 512GB, Deep Purple - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 (64 GB) - Verde</t>
+  </si>
+  <si>
+    <t>iPhone 13, 128GB, Starlight - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro Max, 512 GB, Azul Pacífico (Reacondicionado Premium)</t>
   </si>
   <si>
     <t>Apple iPhone 7 Negro 32 GB (Reacondicionado)</t>
   </si>
   <si>
-    <t>Apple iPhone 11, 64GB, Amarillo (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64GB, (Product) Red (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro, 256GB, Azul Pacifico (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro, 256GB, Plata (Renewed)</t>
-  </si>
-  <si>
-    <t>iPhone 14 128 GB Azul</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128GB, Púrpura (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64GB, Verde (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 128GB, Azul (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 Pro Max, 256GB - Verde Medianoche (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 256GB, Deep Purple - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro (1 TB) - Azul Sierra</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (1 TB) - Titanio Negro</t>
-  </si>
-  <si>
-    <t>Apple 2022 iPhone SE (64 GB) - Blanco Estelar</t>
-  </si>
-  <si>
-    <t>MERCADO PAGO POINT Blue, Terminal para Tarjetas con Conexión Bluetooth</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11, 256GB, Blanco (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 256GB, Blanco Estrella (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 128GB, Rosa (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128 GB, Verde - Totalmente Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max, 256GB, Space Black - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini, 64GB, Morado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Pro, 128 GB, Grafito (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14, 128GB, Starlight - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini, 256GB, Azul - Desbloqueado (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 256GB, Space Black - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max, 256GB, Deep Purple - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max, 256GB, Gold - Unlocked (Renewed Premium)</t>
+    <t>Apple iPhone XR, 64GB, Rojo (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Mini, 256GB, Rojo (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro MAX, 128 GB, Plata - Desbloqueado (Reacondicionado Premium)</t>
+  </si>
+  <si>
+    <t>Roiesvry XS16 Mini Smartphone de 3 pulgadas 4G LTE Android 10 Quad Core 2000mAh Tipo-C Dual SIM teléfono celular pequeño (azul, 2 GB RAM 16 GB ROM)</t>
   </si>
   <si>
     <t>Apple iPhone 12 Pro, 256 GB, Grafito (Reacondicionado Premium)</t>
   </si>
   <si>
-    <t>Apple iPhone 11 (128 GB) - Blanco</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro MAX, 128 GB, Grafito - Desbloqueado (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro MAX (512 GB) - Titanio Negro</t>
-  </si>
-  <si>
-    <t>Apple iPhone XR, 64 GB, Blanco, Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 128GB, Blanco Estrella (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>iPhone 13, 128GB, Product Red - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 64 GB, Negro - T-Mobile (renovado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 Pro (restaurado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone XR 64GB Liberado Rojo (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12, 128GB, Azul (Reacondicionado Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 256GB, Medianoche (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 512GB, Deep Purple - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 256GB, Rosa (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro, 512GB, Space Black - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>Phone Celular Desbloqueado,Phone 11 Desbloqueado U Landvo Ip12 Pro+ 6.26In Pantalla Reconocimiento Facial Tarjeta Dual Dual Standby Smart Phone 1+8Gb(Negro)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14, 512GB, (Product) Red - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple Cable de USB-C a Lightning (1 m)</t>
-  </si>
-  <si>
-    <t>Apple iPhone X, 256GB, Silver - Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 128GB, Rojo (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone XR, 128GB, Yellow - Fully Unlocked (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Cable iPhone USB A a Lightning 3 Pack, iPhone Charger Cable de nailon,3 ft Apple MFi Certificado,para Apple iPhone 14 13 12 11 X Xs Pro, Pro Max, Plus, iPad, gris oscuro</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max, 512GB, Deep Purple - Unlocked (Renewed Premium)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1 TB Morado Oscuro</t>
-  </si>
-  <si>
-    <t>Apple - iPhone 12 - ROJO</t>
-  </si>
-  <si>
-    <t>ANGGREK iPhone 11 Reacondicionado, Desbloqueado, Landvo Ip12 Pro + 6.26In Pantalla Reconocimiento Facial Tarjeta Dual Teléfono Inteligente de Doble Modo de Espera 1 + 8Gb (Negro)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Mini, 256GB, Azul (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone SE 2020 (Negro, 128GB)(Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone XS, 64GB, Gold - Fully Unlocked (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone XR, 64GB, Blanco (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 (Renovado)</t>
-  </si>
-  <si>
-    <t>20,407</t>
-  </si>
-  <si>
-    <t>17,999</t>
-  </si>
-  <si>
-    <t>25,899</t>
-  </si>
-  <si>
-    <t>22,180</t>
-  </si>
-  <si>
-    <t>21,499</t>
+    <t>SAMSUNG Galaxy M54 5G Azul</t>
   </si>
   <si>
     <t>11,499</t>
   </si>
   <si>
-    <t>8,299</t>
-  </si>
-  <si>
-    <t>3,105</t>
-  </si>
-  <si>
-    <t>15,570</t>
-  </si>
-  <si>
-    <t>5,399</t>
-  </si>
-  <si>
-    <t>5,954</t>
-  </si>
-  <si>
-    <t>4,918</t>
-  </si>
-  <si>
-    <t>4,804</t>
-  </si>
-  <si>
-    <t>8,446</t>
-  </si>
-  <si>
-    <t>11,103</t>
-  </si>
-  <si>
-    <t>12,282</t>
-  </si>
-  <si>
-    <t>12,899</t>
-  </si>
-  <si>
-    <t>6,455</t>
-  </si>
-  <si>
-    <t>6,548</t>
-  </si>
-  <si>
-    <t>5,829</t>
-  </si>
-  <si>
-    <t>18,999</t>
-  </si>
-  <si>
-    <t>14,926</t>
+    <t>23,899</t>
+  </si>
+  <si>
+    <t>28,899</t>
+  </si>
+  <si>
+    <t>1,999</t>
+  </si>
+  <si>
+    <t>8,909</t>
+  </si>
+  <si>
+    <t>4,939</t>
+  </si>
+  <si>
+    <t>2,599</t>
+  </si>
+  <si>
+    <t>10,579</t>
+  </si>
+  <si>
+    <t>14,562</t>
+  </si>
+  <si>
+    <t>11,279</t>
+  </si>
+  <si>
+    <t>6,407</t>
+  </si>
+  <si>
+    <t>8,899</t>
+  </si>
+  <si>
+    <t>7,726</t>
+  </si>
+  <si>
+    <t>5,995</t>
+  </si>
+  <si>
+    <t>5,015</t>
+  </si>
+  <si>
+    <t>16,361</t>
+  </si>
+  <si>
+    <t>6,977</t>
+  </si>
+  <si>
+    <t>19,399</t>
+  </si>
+  <si>
+    <t>3,749</t>
+  </si>
+  <si>
+    <t>12,712</t>
+  </si>
+  <si>
+    <t>7,050</t>
+  </si>
+  <si>
+    <t>11,660</t>
+  </si>
+  <si>
+    <t>7,465</t>
   </si>
   <si>
     <t>16,329</t>
   </si>
   <si>
-    <t>23,399</t>
-  </si>
-  <si>
-    <t>10,459</t>
-  </si>
-  <si>
-    <t>10,296</t>
-  </si>
-  <si>
-    <t>6,019</t>
-  </si>
-  <si>
-    <t>7,682</t>
-  </si>
-  <si>
-    <t>12,495</t>
-  </si>
-  <si>
-    <t>8,014</t>
-  </si>
-  <si>
-    <t>5,587</t>
+    <t>8,022</t>
+  </si>
+  <si>
+    <t>10,290</t>
+  </si>
+  <si>
+    <t>6,369</t>
   </si>
   <si>
     <t>7,499</t>
   </si>
   <si>
-    <t>13,204</t>
-  </si>
-  <si>
-    <t>5,839</t>
-  </si>
-  <si>
-    <t>12,067</t>
-  </si>
-  <si>
-    <t>13,387</t>
-  </si>
-  <si>
-    <t>5,949</t>
-  </si>
-  <si>
-    <t>16,539</t>
-  </si>
-  <si>
-    <t>17,356</t>
+    <t>5,939</t>
+  </si>
+  <si>
+    <t>23,999</t>
+  </si>
+  <si>
+    <t>10,499</t>
+  </si>
+  <si>
+    <t>13,478</t>
+  </si>
+  <si>
+    <t>28,499</t>
+  </si>
+  <si>
+    <t>13,942</t>
+  </si>
+  <si>
+    <t>5,875</t>
+  </si>
+  <si>
+    <t>17,555</t>
+  </si>
+  <si>
+    <t>21,999</t>
+  </si>
+  <si>
+    <t>6,643</t>
+  </si>
+  <si>
+    <t>7,412</t>
+  </si>
+  <si>
+    <t>4,427</t>
+  </si>
+  <si>
+    <t>7,198</t>
+  </si>
+  <si>
+    <t>7,099</t>
+  </si>
+  <si>
+    <t>10,885</t>
+  </si>
+  <si>
+    <t>16,999</t>
+  </si>
+  <si>
+    <t>7,979</t>
+  </si>
+  <si>
+    <t>7,089</t>
+  </si>
+  <si>
+    <t>8,905</t>
+  </si>
+  <si>
+    <t>9,106</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>5,320</t>
+  </si>
+  <si>
+    <t>8,855</t>
+  </si>
+  <si>
+    <t>9,135</t>
+  </si>
+  <si>
+    <t>7,289</t>
+  </si>
+  <si>
+    <t>20,873</t>
+  </si>
+  <si>
+    <t>13,083</t>
+  </si>
+  <si>
+    <t>19,137</t>
+  </si>
+  <si>
+    <t>6,170</t>
+  </si>
+  <si>
+    <t>9,820</t>
+  </si>
+  <si>
+    <t>22,992</t>
+  </si>
+  <si>
+    <t>7,739</t>
+  </si>
+  <si>
+    <t>11,016</t>
+  </si>
+  <si>
+    <t>5,200</t>
+  </si>
+  <si>
+    <t>2,431</t>
+  </si>
+  <si>
+    <t>4,799</t>
+  </si>
+  <si>
+    <t>8,815</t>
+  </si>
+  <si>
+    <t>11,999</t>
+  </si>
+  <si>
+    <t>7,887</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>6,912</t>
+  </si>
+  <si>
+    <t>9,852</t>
+  </si>
+  <si>
+    <t>6,189</t>
+  </si>
+  <si>
+    <t>6,479</t>
+  </si>
+  <si>
+    <t>22,130</t>
+  </si>
+  <si>
+    <t>8,499</t>
+  </si>
+  <si>
+    <t>9,420</t>
+  </si>
+  <si>
+    <t>36,999</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>20,597</t>
+  </si>
+  <si>
+    <t>12,499</t>
+  </si>
+  <si>
+    <t>10,956</t>
+  </si>
+  <si>
+    <t>16,116</t>
   </si>
   <si>
     <t>2,449</t>
   </si>
   <si>
-    <t>4,720</t>
-  </si>
-  <si>
-    <t>5,899</t>
-  </si>
-  <si>
-    <t>9,745</t>
-  </si>
-  <si>
-    <t>9,167</t>
-  </si>
-  <si>
-    <t>16,999</t>
-  </si>
-  <si>
-    <t>7,175</t>
-  </si>
-  <si>
-    <t>5,852</t>
-  </si>
-  <si>
-    <t>7,795</t>
-  </si>
-  <si>
-    <t>34,999</t>
-  </si>
-  <si>
-    <t>10,499</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>8,742</t>
-  </si>
-  <si>
-    <t>8,403</t>
-  </si>
-  <si>
-    <t>6,799</t>
-  </si>
-  <si>
-    <t>5,893</t>
-  </si>
-  <si>
-    <t>8,905</t>
-  </si>
-  <si>
-    <t>13,918</t>
-  </si>
-  <si>
-    <t>8,837</t>
-  </si>
-  <si>
-    <t>18,426</t>
-  </si>
-  <si>
-    <t>20,639</t>
-  </si>
-  <si>
-    <t>20,974</t>
-  </si>
-  <si>
-    <t>9,933</t>
-  </si>
-  <si>
-    <t>11,999</t>
-  </si>
-  <si>
-    <t>15,507</t>
-  </si>
-  <si>
-    <t>4,199</t>
-  </si>
-  <si>
-    <t>7,990</t>
-  </si>
-  <si>
-    <t>10,341</t>
-  </si>
-  <si>
-    <t>6,447</t>
-  </si>
-  <si>
-    <t>5,760</t>
-  </si>
-  <si>
-    <t>4,335</t>
-  </si>
-  <si>
-    <t>9,165</t>
-  </si>
-  <si>
-    <t>7,538</t>
-  </si>
-  <si>
-    <t>18,743</t>
-  </si>
-  <si>
-    <t>8,505</t>
-  </si>
-  <si>
-    <t>1,560</t>
-  </si>
-  <si>
-    <t>15,525</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>7,650</t>
-  </si>
-  <si>
-    <t>4,974</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>29,999</t>
-  </si>
-  <si>
-    <t>15,499</t>
-  </si>
-  <si>
-    <t>1,580</t>
-  </si>
-  <si>
-    <t>8,324</t>
-  </si>
-  <si>
-    <t>3,482</t>
-  </si>
-  <si>
-    <t>4,375</t>
-  </si>
-  <si>
-    <t>5,849</t>
-  </si>
-  <si>
-    <t>5,811</t>
-  </si>
-  <si>
-    <t>5,050</t>
-  </si>
-  <si>
-    <t>5,614</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MToxNDU5NzM3MTcyMTI1NDM6MTcyMTM3MDYzNzpzcF9hdGY6MzAwMDUxODc3OTIzMDAyOjowOjo&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX3QRG7%2Fref%3Dsr_1_1_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370637%26sr%3D8-1-spons%26ufe%3Dapp_do%253Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MToxNDU5NzM3MTcyMTI1NDM6MTcyMTM3MDYzNzpzcF9hdGY6MzAwMDUxODc3OTE4ODAyOjowOjo&amp;url=%2FApple-iPhone-15-256-GB%2Fdp%2FB0CHWV294F%2Fref%3Dsr_1_2_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370637%26sr%3D8-2-spons%26ufe%3Dapp_do%253Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MToxNDU5NzM3MTcyMTI1NDM6MTcyMTM3MDYzNzpzcF9hdGY6MjAwMDQ1NDM4MzQxOTk4OjowOjo&amp;url=%2FApple-2022-iPhone-SE-128%2Fdp%2FB09V3JB9CJ%2Fref%3Dsr_1_3_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370637%26sr%3D8-3-spons%26ufe%3Dapp_do%253Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MToxNDU5NzM3MTcyMTI1NDM6MTcyMTM3MDYzNzpzcF9hdGY6MjAwMDkyNjQwNDQ1NzIxOjowOjo&amp;url=%2FApple-iPhone-13-Mini-512-GB%2Fdp%2FB09G9HMRX2%2Fref%3Dsr_1_4_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370637%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-128GB-Rojo/dp/B09LNT1F3H/ref=sr_1_5?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-2020-Renewed-Negro/dp/B088NQXD8T/ref=sr_1_6?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256-GB-Espacial-Reacondicionado/dp/B0BNM2TM2D/ref=sr_1_7?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PP5MSVB/ref=sr_1_8?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Azul-Reacondicionado/dp/B08PNM1LNZ/ref=sr_1_9?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Mini-64GB-Reacondicionado/dp/B09F5VP4CC/ref=sr_1_10?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-renovado-Totalmente-Desbloqueado/dp/B07ZPKN6YR/ref=sr_1_11?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Azul-Reacondicionado/dp/B09PRXBSBQ/ref=sr_1_12?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128-GB-Morado-Reacondicionado/dp/B0BNLT8BMX/ref=sr_1_13?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Medianoche-Desbloqueado/dp/B0BNLTQR8G/ref=sr_1_14?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Pro-Alpino/dp/B09LPDM924/ref=sr_1_15?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Pro-Grafito/dp/B09LP6WWLB/ref=sr_1_16?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PNCYYVZ/ref=sr_1_17?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128-Azul-Reacondicionado/dp/B08PNXVB6B/ref=sr_1_18?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Renovado-Verde-Midnight/dp/B07ZQRMWVB/ref=sr_1_19?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-15-128-GB/dp/B0CHX9DZFR/ref=sr_1_20?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-20&amp;ufe=app_do%3Aamzn1.fos.12c28adc-ede4-4180-8d9e-3d9cc50fec69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128-GB-Espacial-Reacondicionado/dp/B0BNLT5FVN/ref=sr_1_21?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-15-128-Reacondicionado/dp/B0CLN5XNR8/ref=sr_1_22?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-15-Pro-256/dp/B0CHX7NGQK/ref=sr_1_23?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-23&amp;ufe=app_do%3Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-15-Plus-128/dp/B0CHX2HXZC/ref=sr_1_24?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-24&amp;ufe=app_do%3Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Grafito-Reacondicionado/dp/B09PWXB2ZW/ref=sr_1_25?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/iPhone-13-128GB-Midnight-Unlocked/dp/B0BGQKY8S9/ref=sr_1_26?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-26&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Blanco-Reacondicionado/dp/B08PNVY4MB/ref=sr_1_27?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-27</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-Estrella/dp/B09LKTXKXQ/ref=sr_1_28?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-28</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-14-128GB-Blue/dp/B0BYLN65JD/ref=sr_1_29?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-29&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-128GB-Verde/dp/B0B5CHRXFV/ref=sr_1_30?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-P%C3%BArpura-Reacondicionado/dp/B09HP4H4VG/ref=sr_1_31?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-31</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PP2NLSH/ref=sr_1_32?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-32</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-14-Plus-Midnight/dp/B0BYH9S5MT/ref=sr_1_33?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-33&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Blanco-Reacondicionado/dp/B08PPBQM23/ref=sr_1_34?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-34</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-pac%C3%ADfico/dp/B09JFFG8D7/ref=sr_1_35?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-35</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Alpino-Reacondicionado-Premium/dp/B0BGYDF3WL/ref=sr_1_36?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-36</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PNVXZKW/ref=sr_1_37?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-256GB-Azul/dp/B08PP2GVNZ/ref=sr_1_38?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PNVVX47/ref=sr_1_39?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-39</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-128GB-Silver/dp/B0BYLJXZMQ/ref=sr_1_40?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-40&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Space-Black/dp/B0BYLJYN36/ref=sr_1_41?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-41&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Desbloqueado-Refurbished-Reacondicionado/dp/B07CGQBQ9L/ref=sr_1_42?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-11-64GB-Yellow/dp/B07ZPJ8YZ6/ref=sr_1_43?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-43</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PNXBKN5/ref=sr_1_44?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-44</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Reacondicionado/dp/B08PNHB9L7/ref=sr_1_45?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-45</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Plata-Renewed/dp/B08PNN7397/ref=sr_1_46?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-46&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-MPVJ3E-A-iPhone-128-GB/dp/B0BDHHW1MX/ref=sr_1_47?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-47&amp;ufe=app_do%3Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-P%C3%BArpura-Reacondicionado/dp/B09HMYNCZN/ref=sr_1_48?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-48</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Verde-Reacondicionado/dp/B08PP7VXQL/ref=sr_1_49?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKXHWCF/ref=sr_1_50?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-50</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Renovado-Verde-Midnight/dp/B07Z4681LQ/ref=sr_1_51?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Deep-Purple/dp/B0BYLCFYL1/ref=sr_1_52?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.KMSM9mKIYnZNeIFAMvmLGtcSW4iIszH6Bs-45X7YhjjRwALvWFSWYNz2UnZDkJonwxJdxnbywSVNqK8tktiO2u-fI9hURTVLTGvvGH7LTvzpPOg5pAa1qDcUL2hn8rucy-XVb0R_TOV7FPd-BlFTx2EaXeUb-v8G_QWakXxai7cDyRAKjTneXEvrRDhlBF8LFU9Rx316uxQBvhNISjkTzs---VUZimf4jGo-zhvB0dle3SBVurseDkhWa2LVXObOYp7_YJfDY9VunMDBUQKMXMt4FWWsFfBA6zZ6rE919CM.szHJZy2yK8vymlER9Xer4bZAR6y4FQEPp0Vgu3jjclg&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370637&amp;sr=8-52&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo2MTk0OTA2OTIxOTkwNDUxOjE3MjEzNzA2NDQ6c3BfYXRmX25leHQ6MjAwMDkyNjQwNDQ4MDIxOjowOjo&amp;url=%2FApple-iPhone-13-Pro-TB%2Fdp%2FB09G95TGCS%2Fref%3Dsr_1_49_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370644%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo2MTk0OTA2OTIxOTkwNDUxOjE3MjEzNzA2NDQ6c3BfYXRmX25leHQ6MzAwMDUxODc3OTIyOTAyOjowOjo&amp;url=%2FApple-iPhone-15-Pro-TB%2Fdp%2FB0CHX6XXT6%2Fref%3Dsr_1_50_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370644%26sr%3D8-50-spons%26ufe%3Dapp_do%253Aamzn1.fos.1272ca84-14fb-4812-a25f-c99afc3b0469%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo2MTk0OTA2OTIxOTkwNDUxOjE3MjEzNzA2NDQ6c3BfYXRmX25leHQ6MjAwMDQ1NDM4MzQxNzk4OjowOjo&amp;url=%2FApple-2022-iPhone-SE-64%2Fdp%2FB09V3KGN6D%2Fref%3Dsr_1_51_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370644%26sr%3D8-51-spons%26ufe%3Dapp_do%253Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo2MTk0OTA2OTIxOTkwNDUxOjE3MjEzNzA2NDQ6c3BfYXRmX25leHQ6MzAwMTQ5ODY0MzQ3NTAyOjowOjo&amp;url=%2FMERCADO-PAGO-POINT-Terminal-Bluetooth%2Fdp%2FB07VLJ365C%2Fref%3Dsr_1_52_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1721370644%26sr%3D8-52-spons%26ufe%3Dapp_do%253Aamzn1.fos.628a2120-cf12-4882-b7cf-30e681beb181%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-11-256GB-White/dp/B07ZLGR1B1/ref=sr_1_53?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-53</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKZFY7F/ref=sr_1_54?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-54</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKF2RPP/ref=sr_1_55?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-55</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Verde-Reacondicionado/dp/B08PNZDM7L/ref=sr_1_56?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-56</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Space-Black/dp/B0BYLZV28Y/ref=sr_1_57?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-57</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Mini-Morado-Reacondicionado/dp/B09BBT1S3Z/ref=sr_1_58?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.3PcLaRvfFMAApP5aAT3XYJCzlqzCR12p4CIRYik7V2l-FXecwnj_yGPImP1jXp-mq995wlHe50LJyyPWcJC8_fvIquUXRxFuklmhVjoW5p4.dl8-wqcE0MhYmjf1agZEetfr7BYUInuabq44-oGmkpA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-58</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Grafito/dp/B09JF5ZHQS/ref=sr_1_49?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-14-128GB-Starlight/dp/B0BYL94F8F/ref=sr_1_50?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-50&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Mini-256GB/dp/B09JFQPNW2/ref=sr_1_51?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-14-Pro-256GB/dp/B0BYLM8RRW/ref=sr_1_52?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-52&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Deep-Purple/dp/B0BYM42RZ1/ref=sr_1_53?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-53&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-256GB-Gold/dp/B0BYLJVFHW/ref=sr_1_54?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-54&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Grafito/dp/B09JFP3R1D/ref=sr_1_55?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-55</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-11-128-GB-Blanco/dp/B08GH57Z8X/ref=sr_1_56?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-56&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-Grafito-Reacondicionado/dp/B0BGYQ4TXJ/ref=sr_1_57?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-57</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-MAX-512/dp/B0CHX9MSB8/ref=sr_1_58?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-58</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/APPLE-Smartphone-iPhone-XR-Desbloqueado/dp/B07TXMN13K/ref=sr_1_59?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-59</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKW2R37/ref=sr_1_60?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-60</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/iPhone-13-128GB-Product-Red/dp/B0BGQMS4SB/ref=sr_1_61?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-61&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-64-Negro/dp/B08PP1CYRR/ref=sr_1_62?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-62&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-renovado-T-Mobile-Midnight/dp/B082J5TNJ6/ref=sr_1_63?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-63</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-64GB-Liberado-Renewed/dp/B07P6Y8L3F/ref=sr_1_64?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-64</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-12-128GB-Azul/dp/B09JFP6L1F/ref=sr_1_65?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-65</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-Estrella/dp/B09LKWDMW8/ref=sr_1_66?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-66</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-512GB-Deep-Purple/dp/B0BYLQWZS4/ref=sr_1_67?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-67&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKRR4VQ/ref=sr_1_68?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-68</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-512GB-Space-Black/dp/B0BYLRK2CL/ref=sr_1_69?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-69&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Samsung-Galaxy-128GB-Black-Desbloqueado/dp/B0CSB14R7J/ref=sr_1_70?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-70</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-512-GB/dp/B09G9HMRX2/ref=sr_1_71?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-71</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Celular-Desbloqueado-Pantalla-Reconocimiento-Tarjeta/dp/B0BW9Y8LS9/ref=sr_1_72?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-72&amp;ufe=app_do%3Aamzn1.fos.12c28adc-ede4-4180-8d9e-3d9cc50fec69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-512GB-Product-Red/dp/B0BYL7CFTK/ref=sr_1_73?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-73&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-MUQ93AM-A-Cable-Lightning/dp/B0CX22JSR3/ref=sr_1_74?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-74&amp;ufe=app_do%3Aamzn1.fos.12c28adc-ede4-4180-8d9e-3d9cc50fec69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Silver-Reacondicionado/dp/B081TJ7B88/ref=sr_1_75?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-75</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKYLHJS/ref=sr_1_76?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-76</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-XR-128GB-Yellow/dp/B07P83C2RD/ref=sr_1_77?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-77</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/iPhone-Lightning-Pack%EF%BC%8CiPhone-Charger-Certificado/dp/B0CCVBDJG1/ref=sr_1_78?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-78</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-512GB-Deep-Purple/dp/B0BYLQS112/ref=sr_1_79?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-79</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-Morado-Oscuro/dp/B0BDHTS15J/ref=sr_1_80?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-80&amp;ufe=app_do%3Aamzn1.fos.12c28adc-ede4-4180-8d9e-3d9cc50fec69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-Nuevo-iPhone-12-256-GB/dp/B08L7TKCPN/ref=sr_1_81?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-81&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/ANGGREK-Reacondicionado-Desbloqueado-Reconocimiento-Inteligente/dp/B0C4JCMK9K/ref=sr_1_82?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-82&amp;ufe=app_do%3Aamzn1.fos.12c28adc-ede4-4180-8d9e-3d9cc50fec69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKM34XN/ref=sr_1_83?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-83</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Negro-128GB-Reacondicionado/dp/B089J74GW2/ref=sr_1_84?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-84</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-Totalmente-Desbloqueado-Dorado/dp/B07K4V35TJ/ref=sr_1_85?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-85</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-XR-64GB-White/dp/B07P978C2R/ref=sr_1_86?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-86</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.mx/Apple-iPhone-11-Renovado/dp/B084HM9YWW/ref=sr_1_87?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.d970LucwFGXK8TdbXBC1zEIHtXezLY-_OBJsoKIfTq1GGobSyKMHkPM-Oovh_qXkdTeUwyKAB3-4dfMUqTbTXHHy3hwnTMkIJkt6QKp1ea2i1wXeYbw537QZQ_sQLaxs41O4SCQnhx8W9TdzaWfchWBRH1BobjUKWaRjzPX4jTBCMpBnZUYNjxuf7FpjarGHCnKjFPTlHVoi6VxMGAYdjM261Y2uWRasHwseu8ExAoS4lGQmnevs0F661GxpGBiMAs0LhciN_aZ1X73Gys_1WmR57Q1cyh6yMLvih_jFWug.3d7T-wtQ2Luoa-bUKRNXgF9pDaWBfAO5lsJz5d-k0JI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1721370644&amp;sr=8-87</t>
+    <t>5,491</t>
+  </si>
+  <si>
+    <t>9,014</t>
+  </si>
+  <si>
+    <t>16,856</t>
+  </si>
+  <si>
+    <t>1,313</t>
+  </si>
+  <si>
+    <t>11,449</t>
+  </si>
+  <si>
+    <t>6,958</t>
+  </si>
+  <si>
+    <t>9,928</t>
+  </si>
+  <si>
+    <t>7,999</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>8,178</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo4NDE2Mzk4MzE2NDY0ODgyOjE3MjMwMTA0NTU6c3BfYXRmOjIwMDA0NTQzODM0MTY5ODo6MDo6&amp;url=%2FApple-2022-iPhone-SE-128%2Fdp%2FB09V3GXW81%2Fref%3Dsr_1_1_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010455%26sr%3D8-1-spons%26ufe%3Dapp_do%253Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo4NDE2Mzk4MzE2NDY0ODgyOjE3MjMwMTA0NTU6c3BfYXRmOjMwMDA1MTg3NzkyMzIwMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX1N7XM%2Fref%3Dsr_1_2_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010455%26sr%3D8-2-spons%26ufe%3Dapp_do%253Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo4NDE2Mzk4MzE2NDY0ODgyOjE3MjMwMTA0NTU6c3BfYXRmOjMwMDA1MTg3NzkyNDIwMjo6MDo6&amp;url=%2FApple-iPhone-Pro-MAX-256%2Fdp%2FB0CHXC7Y4S%2Fref%3Dsr_1_3_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010455%26sr%3D8-3-spons%26ufe%3Dapp_do%253Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo4NDE2Mzk4MzE2NDY0ODgyOjE3MjMwMTA0NTU6c3BfYXRmOjIwMDA3MzcxMDE0NDQyMTo6MDo6&amp;url=%2FApple-Nuevo-AirTag-Paquete-4%2Fdp%2FB0932QJ2JZ%2Fref%3Dsr_1_4_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010455%26sr%3D8-4-spons%26ufe%3Dapp_do%253Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-128GB-Rojo/dp/B09LNT1F3H/ref=sr_1_5?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-renovado-Totalmente-Desbloqueado/dp/B07ZPKN6YR/ref=sr_1_6?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-SE-2020-Renewed/dp/B088NQSLGN/ref=sr_1_7?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Medianoche-Desbloqueado/dp/B0BNLTQR8G/ref=sr_1_8?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256-GB-Espacial-Reacondicionado/dp/B0BNM2TM2D/ref=sr_1_9?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128-GB-Medianoche-Reacondicionado/dp/B0BNLVMP9H/ref=sr_1_10?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Azul-Reacondicionado/dp/B08PNM1LNZ/ref=sr_1_11?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Grafito-Reacondicionado/dp/B08PNP5YGV/ref=sr_1_12?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128-Azul-Reacondicionado/dp/B08PNXVB6B/ref=sr_1_13?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PP5MSVB/ref=sr_1_14?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Mini-64GB-Reacondicionado/dp/B08PP43P1V/ref=sr_1_15?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128-GB-Espacial-Reacondicionado/dp/B0BNLT5FVN/ref=sr_1_16?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Unlocked-Renewed/dp/B07ZQRL9XY/ref=sr_1_17?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-15-128-GB/dp/B0CHX9DZFR/ref=sr_1_18?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-18&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Totalmente-Desbloqueado-renovado/dp/B07P6Y7954/ref=sr_1_19?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Pro-Alpino/dp/B09LPDM924/ref=sr_1_20?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PNCYYVZ/ref=sr_1_21?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Pro-Alpino/dp/B09LPB9SQH/ref=sr_1_22?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-128GB-Verde/dp/B0B5CHRXFV/ref=sr_1_23?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-15-128-Reacondicionado/dp/B0CLN5XNR8/ref=sr_1_24?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-15-Pro-128/dp/B0CHX1C1QH/ref=sr_1_25?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-25&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-Estrella/dp/B09LKTXKXQ/ref=sr_1_26?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-128GB-Graphite/dp/B08PL89SJS/ref=sr_1_27?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Blanco-Reacondicionado/dp/B08PPBQM23/ref=sr_1_28?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Blanco-Reacondicionado/dp/B08PNVY4MB/ref=sr_1_29?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Verde-Reacondicionado/dp/B08PP7VXQL/ref=sr_1_30?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-256GB-Verde/dp/B08PP9X2F5/ref=sr_1_31?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-512-GB/dp/B09G9BQDNL/ref=sr_1_32?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-32&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-2022-iPhone-SE-Medianoche/dp/B09V3KP93C/ref=sr_1_33?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-33&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Negro-Reacondicionado/dp/B08PNVVX47/ref=sr_1_34?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-256GB-Azul/dp/B08PP2GVNZ/ref=sr_1_35?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Sierra-Reacondicionado-Premium/dp/B0BGYF4CZF/ref=sr_1_36?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-MAX-256/dp/B0CHX1K3P6/ref=sr_1_37?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-37&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-14-Plus-Midnight/dp/B0BYH9S5MT/ref=sr_1_38?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-38&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PNXBKN5/ref=sr_1_39?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-128GB-Space-Black/dp/B0BYLJYN36/ref=sr_1_40?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-40&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-15-Plus-128/dp/B0CHX2HXZC/ref=sr_1_41?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-41&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-P%C3%BArpura-Reacondicionado/dp/B09HP4H4VG/ref=sr_1_42?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PP2NLSH/ref=sr_1_43?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-XR-64GB-White/dp/B07P978C2R/ref=sr_1_44?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-P%C3%BArpura-Reacondicionado/dp/B09HMYNCZN/ref=sr_1_45?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Verde-Reacondicionado/dp/B08PNZDM7L/ref=sr_1_46?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/iPhone-13-128GB-Midnight-Unlocked/dp/B0BGQKY8S9/ref=sr_1_47?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-47&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-14-128-GB-Medianoche/dp/B0BDJ4K3MK/ref=sr_1_48?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-48&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKXHWCF/ref=sr_1_49?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Producto-Rojo/dp/B08PNVXZKW/ref=sr_1_50?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Grafito/dp/B09JF5ZHQS/ref=sr_1_51?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKF2RPP/ref=sr_1_52?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.PCYFJ396lQ3c-JiPmXqR3ChT4pyaFYyJ8PsQYBklHKJtFmP8iW5UH6_4VaXL0ZYy8wG1oYnpi0JAhIx5OL68dFHh7K-ISdbLc0oGEdIuxX-p9cJOIoT9aDeOfqTxLzJCUKmByymdUWAkuwBN1z2wDqM2iI_Kjv6zzUpS_xxRwA6Ggmt3nQjzECt8qfqZwjWK3NoO__h-L93xHFAuBE7ar6ud7YiGAuT5djeBP5-LY8EtaVraSRfpnlbI8QkZrHuSj6sROOflfKo6-OaYSHMxeQDQ8-mlZRzUBEA3tNjeCJI.x-eA042tSIC9Yg8lb1qOC4y9uYmtN_gCJbdFpMYVyTs&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010455&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo1MjE1NjYzNDUyNzQzNTg6MTcyMzAxMDQ2MjpzcF9hdGZfbmV4dDozMDAwNTE4Nzc5MjMwMDI6OjA6Og&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX3QRG7%2Fref%3Dsr_1_49_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010462%26sr%3D8-49-spons%26ufe%3Dapp_do%253Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo1MjE1NjYzNDUyNzQzNTg6MTcyMzAxMDQ2MjpzcF9hdGZfbmV4dDoyMDAwNDU0MzgzNDE3OTg6OjA6Og&amp;url=%2FApple-2022-iPhone-SE-64%2Fdp%2FB09V3KGN6D%2Fref%3Dsr_1_50_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010462%26sr%3D8-50-spons%26ufe%3Dapp_do%253Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo1MjE1NjYzNDUyNzQzNTg6MTcyMzAxMDQ2MjpzcF9hdGZfbmV4dDozMDAzMzg3ODIyODEwMDI6OjA6Og&amp;url=%2FFasgear-retr%25C3%25A1ctil-cargador-compatible-controlador%2Fdp%2FB0CQK21KGJ%2Fref%3Dsr_1_51_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010462%26sr%3D8-51-spons%26ufe%3Dapp_do%253Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/sspa/click?ie=UTF8&amp;spc=MTo1MjE1NjYzNDUyNzQzNTg6MTcyMzAxMDQ2MjpzcF9hdGZfbmV4dDoyMDAwMjM2OTYzODk1NjE6OjA6Og&amp;url=%2FPilas-Auditivas-Soundex-675-1-4V%2Fdp%2FB08745KHND%2Fref%3Dsr_1_52_sspa%3F__mk_es_MX%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI%26dib_tag%3Dse%26keywords%3Diphone%26qid%3D1723010462%26sr%3D8-52-spons%26ufe%3Dapp_do%253Aamzn1.fos.628a2120-cf12-4882-b7cf-30e681beb181%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-11-64GB-Yellow/dp/B07ZPJ8YZ6/ref=sr_1_53?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-Estrella/dp/B09LKWDMW8/ref=sr_1_54?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Reacondicionado/dp/B08PNHB9L7/ref=sr_1_55?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-64GB-Midnight-Green/dp/B07ZQS6LPZ/ref=sr_1_56?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-14-Pro-256GB/dp/B0BYLM8RRW/ref=sr_1_57?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-57&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-14-128GB-Blue/dp/B0BYLN65JD/ref=sr_1_58?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.beeVGlnVKPzuoUfkA-1F1IOF83I2J6OXPEqknWAHW7Kq4racvDrbXkvuuKhujfQIB_KxrfdDV1Vil7vF2osP10U0qSHyPR2cvQFl3ioXrkc.UT3eEz3maGBXTpO-Jz9ijRLNJS0NiBFYqUdGJNDGRGI&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-58&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Deep-Purple/dp/B0BYLCFYL1/ref=sr_1_49?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-49&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-11-Pro-restaurado/dp/B085QMXBD2/ref=sr_1_50?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Plata-Renewed/dp/B08PNN7397/ref=sr_1_51?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-51&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Space-Black/dp/B0BYLZV28Y/ref=sr_1_52?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-52&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-11-256GB-White/dp/B07ZLGR1B1/ref=sr_1_53?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-128GB/dp/B09LKW2R37/ref=sr_1_54?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/iPhone-13-128GB-Product-Red/dp/B0BGQMS4SB/ref=sr_1_55?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-55&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Mini-Morado-Reacondicionado/dp/B09BBT1S3Z/ref=sr_1_56?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Celular-Desbloqueado-Pantalla-Reconocimiento-Tarjeta/dp/B0BW9Y8LS9/ref=sr_1_57?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-57&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Silver-Reacondicionado/dp/B081TJ7B88/ref=sr_1_58?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-58</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKZFY7F/ref=sr_1_59?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-59</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-11-128-GB-Blanco/dp/B08GH57Z8X/ref=sr_1_60?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-60&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-256GB-Morado/dp/B09HMXYY8W/ref=sr_1_61?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-61</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-MUQ93AM-A-Cable-Lightning/dp/B0CX22JSR3/ref=sr_1_62?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-62&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Google-Pixel-Pro-Desbloqueado-teleobjetivo/dp/B0BCQWVFPW/ref=sr_1_63?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-63</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Samsung-Galaxy-128GB-Black-Desbloqueado/dp/B0CSB14R7J/ref=sr_1_64?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-64</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-64-Negro/dp/B08PP1CYRR/ref=sr_1_65?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-65&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Plata-Renewed-Premium/dp/B08BHL8J6X/ref=sr_1_66?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-66</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Media-Reacondicionado-Premium/dp/B0BY5QQQB6/ref=sr_1_67?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-67</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-XR-128GB-Yellow/dp/B07P83C2RD/ref=sr_1_68?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-68</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-256GB-Deep-Purple/dp/B0BYM42RZ1/ref=sr_1_69?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-69&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKM34XN/ref=sr_1_70?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-70</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKRR4VQ/ref=sr_1_71?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-71</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Pro-TB/dp/B09G95TGCS/ref=sr_1_72?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-72&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Honor-Smartphone-128GB-Titanio-Desbloqueado/dp/B0BT3H696R/ref=sr_1_73?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-73</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/iPhone-Lightning-Pack%EF%BC%8CiPhone-Charger-Certificado/dp/B0CCVBDJG1/ref=sr_1_74?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-74&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-512GB-Deep-Purple/dp/B0BYLQWZS4/ref=sr_1_75?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-75&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-Nuevo-iPhone-12-64-GB/dp/B08L7T71QV/ref=sr_1_76?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-76&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/iPhone-13-128GB-Starlight-Unlocked/dp/B0BGQLFB55/ref=sr_1_77?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-77&amp;ufe=app_do%3Aamzn1.fos.a9e70178-7411-4f75-8d83-e6796a165895</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Pac%C3%ADfico/dp/B09JFGT21S/ref=sr_1_78?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-78</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Desbloqueado-Refurbished-Reacondicionado/dp/B07CGQBQ9L/ref=sr_1_79?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-79</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/APPLE-Smartphone-iPhone-XR-Desbloqueado/dp/B07TVFSWPH/ref=sr_1_80?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-80</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-Nuevo-AirTag-Paquete-4/dp/B0932QJ2JZ/ref=sr_1_81?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-81&amp;ufe=app_do%3Aamzn1.fos.47e6034e-121d-4b4a-ac82-cf82115f6ad8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-13-Mini-256GB/dp/B09LKVQDBT/ref=sr_1_82?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-82</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-Pro-Plata-Reacondicionado/dp/B0BGYFQY1Q/ref=sr_1_83?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-83</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Roiesvry-XS16-Smartphone-pulgadas-tel%C3%A9fono/dp/B0CM9JY1SQ/ref=sr_1_84?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-84&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/Apple-iPhone-12-Pro-Grafito/dp/B09JFP3R1D/ref=sr_1_85?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-85</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/SAMSUNG-Galaxy-M54-5G-Azul/dp/B0BWPWCRKY/ref=sr_1_86?__mk_es_MX=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.CtpR8cUGiq4sg32VfMQVku_-yYE1LUoBekAB1YveHQpUd7PZIicKm0IMPGC-1hYcDWSxPsYzQPWIEETR74OOM-R4MRvkqQXjVDHnlLqZv-GnrgJgZJz54KkFkshO09SaBL7zRPL0OoPI8xPIzinl2EY58eSII2MpZcC60ipUn_WaFQWD6CL9V9y49X0lkNW5I80_EWc07EIiYoL8L_ie2kyExSiZKlgtPAgqd-UCNklix5v0UpTkw31uh8FEh8tYqWzsZ4DEoisQPZwahm_X0EtlWNTxCWLASpYih6e5CVo.s1iLscAhA_yT8-KA1wfr6t3nPE_RIuhIHxa6LsQjwhA&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1723010462&amp;sr=8-86&amp;ufe=app_do%3Aamzn1.fos.242f5c11-6cfd-40d6-91f6-be3d1974080c</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1302,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1313,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1324,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1335,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1357,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1456,10 +1456,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1467,10 +1467,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1478,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1489,10 +1489,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1500,10 +1500,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1511,10 +1511,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1522,10 +1522,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1533,10 +1533,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1544,10 +1544,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1555,10 +1555,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1577,10 +1577,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1588,10 +1588,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1599,10 +1599,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1610,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1621,10 +1621,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1654,10 +1654,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1665,10 +1665,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1676,10 +1676,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1687,10 +1687,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1698,10 +1698,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1709,10 +1709,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1720,10 +1720,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1731,10 +1731,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1742,10 +1742,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1753,10 +1753,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1764,10 +1764,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1775,10 +1775,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1786,10 +1786,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1797,10 +1797,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1808,10 +1808,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1819,10 +1819,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1830,10 +1830,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1841,10 +1841,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1852,10 +1852,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1874,10 +1874,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1885,10 +1885,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1896,10 +1896,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1907,10 +1907,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1918,10 +1918,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1929,10 +1929,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1940,10 +1940,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1951,10 +1951,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1962,10 +1962,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1973,10 +1973,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1995,10 +1995,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2006,10 +2006,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2017,10 +2017,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2028,10 +2028,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2050,10 +2050,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2061,10 +2061,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2072,10 +2072,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2204,131 +2204,131 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2336,10 +2336,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2347,10 +2347,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2358,10 +2358,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2369,10 +2369,10 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2380,20 +2380,9 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>193</v>
-      </c>
-      <c r="C102" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2499,7 +2488,6 @@
     <hyperlink ref="C99" r:id="rId98"/>
     <hyperlink ref="C100" r:id="rId99"/>
     <hyperlink ref="C101" r:id="rId100"/>
-    <hyperlink ref="C102" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
